--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Con.Uni.Protein.PlaquePhenotypes.RANK.MODEL1.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Con.Uni.Protein.PlaquePhenotypes.RANK.MODEL1.xlsx
@@ -407,7 +407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -467,10 +467,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0655151357178182</v>
+        <v>0.0655151357178179</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0276125664140407</v>
+        <v>0.0276125664140408</v>
       </c>
       <c r="F2" t="n">
         <v>1.06770889773179</v>
@@ -482,16 +482,16 @@
         <v>1.12708625354781</v>
       </c>
       <c r="I2" t="n">
-        <v>2.37265651933406</v>
+        <v>2.37265651933403</v>
       </c>
       <c r="J2" t="n">
-        <v>0.017822161314934</v>
+        <v>0.0178221613149351</v>
       </c>
       <c r="K2" t="n">
-        <v>0.164840872981801</v>
+        <v>0.164840872981795</v>
       </c>
       <c r="L2" t="n">
-        <v>0.161975833094946</v>
+        <v>0.16197583309494</v>
       </c>
       <c r="M2" t="n">
         <v>2423</v>
@@ -514,31 +514,31 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0950192490160374</v>
+        <v>-0.0950192490160338</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0285097908474263</v>
+        <v>0.0285097908474273</v>
       </c>
       <c r="F3" t="n">
-        <v>0.909355430102503</v>
+        <v>0.909355430102507</v>
       </c>
       <c r="G3" t="n">
-        <v>0.859935030019778</v>
+        <v>0.85993503001978</v>
       </c>
       <c r="H3" t="n">
-        <v>0.961616016779651</v>
+        <v>0.961616016779656</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.33286377036383</v>
+        <v>-3.33286377036359</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000886646202522772</v>
+        <v>0.00088664620252354</v>
       </c>
       <c r="K3" t="n">
-        <v>0.170817070800397</v>
+        <v>0.170817070800357</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1679627405794</v>
+        <v>0.16796274057936</v>
       </c>
       <c r="M3" t="n">
         <v>2423</v>
@@ -561,13 +561,13 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.124615112032038</v>
+        <v>0.124615112032036</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0274678192611206</v>
+        <v>0.0274678192611209</v>
       </c>
       <c r="F4" t="n">
-        <v>1.13271240178216</v>
+        <v>1.13271240178215</v>
       </c>
       <c r="G4" t="n">
         <v>1.07334311723204</v>
@@ -576,16 +576,16 @@
         <v>1.19536554951768</v>
       </c>
       <c r="I4" t="n">
-        <v>4.53676758418257</v>
+        <v>4.53676758418247</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00000630595861201853</v>
+        <v>0.00000630595861202157</v>
       </c>
       <c r="K4" t="n">
-        <v>0.177520017464671</v>
+        <v>0.177520017464655</v>
       </c>
       <c r="L4" t="n">
-        <v>0.17468387959386</v>
+        <v>0.174683879593844</v>
       </c>
       <c r="M4" t="n">
         <v>2423</v>
@@ -608,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06247249221516</v>
+        <v>-0.0624724922151595</v>
       </c>
       <c r="E5" t="n">
         <v>0.0286195845096137</v>
@@ -620,13 +620,13 @@
         <v>0.888192413267934</v>
       </c>
       <c r="H5" t="n">
-        <v>0.993642190370476</v>
+        <v>0.993642190370477</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.18285811221944</v>
+        <v>-2.18285811221942</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0292590689629062</v>
+        <v>0.0292590689629073</v>
       </c>
       <c r="K5" t="n">
         <v>0.155768313300139</v>
@@ -655,31 +655,31 @@
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0.121339121539106</v>
+        <v>0.121339121539221</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0380354328421871</v>
+        <v>0.0380354328421809</v>
       </c>
       <c r="F6" t="n">
-        <v>1.1290077182899</v>
+        <v>1.12900771829003</v>
       </c>
       <c r="G6" t="n">
-        <v>1.04790158407983</v>
+        <v>1.04790158407997</v>
       </c>
       <c r="H6" t="n">
-        <v>1.21639135518384</v>
+        <v>1.21639135518396</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1901601341716</v>
+        <v>3.19016013417514</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0015029787544437</v>
+        <v>0.00150297875442562</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0846989343528203</v>
+        <v>0.0846989343531471</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0780421993299316</v>
+        <v>0.0780421993302609</v>
       </c>
       <c r="M6" t="n">
         <v>2423</v>
@@ -702,31 +702,31 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.226448639007355</v>
+        <v>-0.226448639007385</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0395723294667171</v>
+        <v>0.0395723294667079</v>
       </c>
       <c r="F7" t="n">
-        <v>0.797360294477526</v>
+        <v>0.797360294477502</v>
       </c>
       <c r="G7" t="n">
-        <v>0.737853189223738</v>
+        <v>0.737853189223729</v>
       </c>
       <c r="H7" t="n">
-        <v>0.861666586923839</v>
+        <v>0.861666586923797</v>
       </c>
       <c r="I7" t="n">
-        <v>-5.7223985056986</v>
+        <v>-5.7223985057007</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0000000173176703736166</v>
+        <v>0.0000000173176703734148</v>
       </c>
       <c r="K7" t="n">
-        <v>0.121878988835442</v>
+        <v>0.121878988835752</v>
       </c>
       <c r="L7" t="n">
-        <v>0.115457628607547</v>
+        <v>0.11545762860786</v>
       </c>
       <c r="M7" t="n">
         <v>2423</v>
@@ -749,31 +749,31 @@
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>0.221025103012311</v>
+        <v>0.221025103012318</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0361218725410129</v>
+        <v>0.0361218725410125</v>
       </c>
       <c r="F8" t="n">
-        <v>1.24735474253251</v>
+        <v>1.24735474253252</v>
       </c>
       <c r="G8" t="n">
-        <v>1.16209711751358</v>
+        <v>1.16209711751359</v>
       </c>
       <c r="H8" t="n">
-        <v>1.33886732035558</v>
+        <v>1.33886732035559</v>
       </c>
       <c r="I8" t="n">
-        <v>6.1188716825618</v>
+        <v>6.11887168256208</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00000000179930325476532</v>
+        <v>0.0000000017993032547624</v>
       </c>
       <c r="K8" t="n">
-        <v>0.129412524909996</v>
+        <v>0.129412524910017</v>
       </c>
       <c r="L8" t="n">
-        <v>0.123034594689556</v>
+        <v>0.123034594689578</v>
       </c>
       <c r="M8" t="n">
         <v>2423</v>
@@ -796,31 +796,31 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0556111255468211</v>
+        <v>-0.0556111255467892</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0507534909205995</v>
+        <v>0.0507534909206178</v>
       </c>
       <c r="F9" t="n">
-        <v>0.945906903407886</v>
+        <v>0.945906903407917</v>
       </c>
       <c r="G9" t="n">
-        <v>0.856339843879872</v>
+        <v>0.856339843879869</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04484204058618</v>
+        <v>1.04484204058625</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.0957103548566</v>
+        <v>-1.09571035485557</v>
       </c>
       <c r="J9" t="n">
-        <v>0.273694888248035</v>
+        <v>0.273694888248483</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0747701299180208</v>
+        <v>0.0747701299175579</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0679038600101769</v>
+        <v>0.0679038600097106</v>
       </c>
       <c r="M9" t="n">
         <v>2423</v>
